--- a/jupiter-cloud/Data/tc_003.xlsx
+++ b/jupiter-cloud/Data/tc_003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\installed\EclispseWorkspaces\jupiter-cloud\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\installed\EclispseWorkspaces\a\jupiter-cloud-prabhath\jupiter-cloud\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7FDE1E-AC39-4F2C-B9EE-997C3B60214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBDF4E2-BD9E-4D0E-87A8-907CB721E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{002B31A8-901C-4AB6-8B7F-8F0812D7BFE4}"/>
   </bookViews>
@@ -385,12 +385,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
